--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas3.cc.ic.ac.uk\hyc715\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="11910"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,9 +24,16 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">This Spreadsheet contains a list of domestic washing machines along with their technical, financial attributes and other details.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>This Spreadsheet contains a list of domestic washing machines along with their technical attributes, price and other details.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>WM Model (Source of Availability)\Attribute (Units)</t>
   </si>
@@ -124,20 +139,25 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.laundrystuff.co.uk/machines/primus-fx80-commercial-washing-machine
-£3388 exc VAT http://picoequipment.co.uk/Primus-FX80-Washer-Extractor
-</t>
+£3388 exc VAT http://picoequipment.co.uk/Primus-FX80-Washer-Extractor</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>Quote</t>
     </r>
   </si>
   <si>
     <t>Motor 750
-Heating 6000
-</t>
+Heating 6000</t>
   </si>
   <si>
     <t>1.436kWh/cycle
@@ -160,8 +180,7 @@
   </si>
   <si>
     <t>Wash 52
-Extraction 64
-</t>
+Extraction 64</t>
   </si>
   <si>
     <t>High spin, free standing' Front Load, Soft mount, ECO3 include 15%, 20% less W, E consumption than traditional FX series.
@@ -179,16 +198,14 @@
   </si>
   <si>
     <t>Motor 1100
-Heating 9000
-</t>
+Heating 9000</t>
   </si>
   <si>
     <t>123x80x80</t>
   </si>
   <si>
     <t>Wash 52
-Extraction 66
-</t>
+Extraction 66</t>
   </si>
   <si>
     <t>Front Load, Soft mount</t>
@@ -222,7 +239,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://picoequipment.co.uk/Primus-RX80-001-Washer</t>
     </r>
@@ -274,8 +293,7 @@
   </si>
   <si>
     <t>W 62
-S 79
-</t>
+S 79</t>
   </si>
   <si>
     <t>http://www.samsung.com/uk/consumer/home-appliances/laundry/washing-machine/WF80F5EBW4W/EU</t>
@@ -286,8 +304,7 @@
   </si>
   <si>
     <t>233
-(Cotton 40C - 144min)
-</t>
+(Cotton 40C - 144min)</t>
   </si>
   <si>
     <t>0.56kWh/cycle</t>
@@ -375,9 +392,6 @@
     <t>15 AMP fuse breaker required</t>
   </si>
   <si>
-    <t>http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf</t>
-  </si>
-  <si>
     <t>SHARP Twin Tub (Top Load) (Yubeyi)</t>
   </si>
   <si>
@@ -385,8 +399,7 @@
   </si>
   <si>
     <t>SAMSUNG WFF500E (Samsung Africa)
-WF80F5E5U4X/FA
-</t>
+WF80F5E5U4X/FA</t>
   </si>
   <si>
     <t>SAMSUNG WW7000H (Samsung Africa)
@@ -401,60 +414,90 @@
   <si>
     <r>
       <t>URL Links
-Samsung Rwanda
-</t>
+Samsung Rwanda</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>http://www.samsung.com/africa_fr/consumer/home-appliances/washing-machines/</t>
     </r>
+  </si>
+  <si>
+    <t>http://www.yubeyi.com/samsung-wf1702w5w-7kg-front-load-washing-machine-white-542.html</t>
+  </si>
+  <si>
+    <t>http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf
+http://www.yubeyi.com/samsung-wf1702w5w-7kg-front-load-washing-machine-white-542.html</t>
+  </si>
+  <si>
+    <t>http://www.luluwebstore.com/products/lulu-home--living-major-appliances-washing-machines/lg/lg-washer-f10b8ndp25-6kg/pid-8250512.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,66 +507,382 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.0"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="46.0"/>
-    <col customWidth="1" min="5" max="5" width="30.86"/>
-    <col customWidth="1" min="6" max="6" width="23.29"/>
-    <col customWidth="1" min="7" max="7" width="41.57"/>
-    <col customWidth="1" min="8" max="12" width="22.43"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="8" max="12" width="22.42578125" customWidth="1"/>
+    <col min="20" max="20" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" customHeight="1">
+    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,46 +944,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9">
+        <v>59</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9">
+        <v>49</v>
+      </c>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -633,17 +1005,17 @@
       <c r="N5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" ht="35.25" customHeight="1">
+    <row r="6" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3">
-        <v>42591.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2">
+        <v>42591</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -652,36 +1024,36 @@
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>76</v>
+      </c>
+      <c r="L6" s="3"/>
       <c r="M6" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O6" s="1">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="P6" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="Q6" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>38</v>
@@ -689,45 +1061,53 @@
       <c r="S6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="33.75" customHeight="1">
+    <row r="7" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3">
-        <v>42686.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>42686</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3">
+        <v>76</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="1">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="P7" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>45</v>
@@ -735,8 +1115,11 @@
       <c r="S7" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -746,31 +1129,39 @@
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3">
+        <v>76</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O8" s="1">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="P8" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>51</v>
@@ -778,112 +1169,151 @@
       <c r="S8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3">
-        <v>42591.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2">
+        <v>42591</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>76.0</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3">
+        <v>76</v>
+      </c>
+      <c r="L9" s="3"/>
       <c r="S9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="3">
-        <v>42686.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42686</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="H11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="M12" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="O12" s="1">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>7.5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F13" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>73</v>
@@ -892,44 +1322,66 @@
         <v>74</v>
       </c>
       <c r="M13" s="1">
-        <v>98.0</v>
-      </c>
-      <c r="T13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>79</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="T14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -937,7 +1389,7 @@
         <v>82</v>
       </c>
       <c r="C16" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>84</v>
@@ -948,8 +1400,11 @@
       <c r="L16" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="T16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -957,113 +1412,144 @@
         <v>88</v>
       </c>
       <c r="C17" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>470.0</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="T17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1200.0</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="9">
+        <v>61</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9">
+        <v>1200</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="9">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" ht="70.5" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28">
+    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="T6"/>
-    <hyperlink r:id="rId3" ref="T9"/>
-    <hyperlink r:id="rId4" ref="T12"/>
-    <hyperlink r:id="rId5" ref="T13"/>
-    <hyperlink r:id="rId6" ref="T18"/>
+    <hyperlink ref="T6" r:id="rId1"/>
+    <hyperlink ref="T9" r:id="rId2"/>
+    <hyperlink ref="T12" r:id="rId3"/>
+    <hyperlink ref="T13" r:id="rId4"/>
+    <hyperlink ref="T18" r:id="rId5" display="http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22005" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
   <si>
     <t>WM Model (Source of Availability)\Attribute (Units)</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>URL Link</t>
   </si>
   <si>
     <t>SAMSUNG WWW60J3280NS (Longin)</t>
@@ -129,9 +126,6 @@
   </si>
   <si>
     <t>LG F1496ADP248500 (Longin)</t>
-  </si>
-  <si>
-    <t>Primus FX 80 (Commercial Distributor)</t>
   </si>
   <si>
     <r>
@@ -191,9 +185,6 @@
     <t>http://www.primusfx.co.uk/pdfs/FX65_80_105_135/SG_FX_ENG.pdf</t>
   </si>
   <si>
-    <t>Primus FX105 (Commercial DIstributor)</t>
-  </si>
-  <si>
     <t>Quote</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>Front Load, Soft mount</t>
   </si>
   <si>
-    <t>Primus FX 135 (Commercial Distribiutor)</t>
-  </si>
-  <si>
     <t>14-15</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
   </si>
   <si>
     <t>Front Load, SOft mount</t>
-  </si>
-  <si>
-    <t>Primus RX 80 (Commercial DIstributor)</t>
   </si>
   <si>
     <r>
@@ -263,12 +248,6 @@
   </si>
   <si>
     <t>http://totalcommercialequipment.com.au/lanotattachments/download/file/id/318/store/1/primus_rx80_rx105_rx135_washer_tce.pdf</t>
-  </si>
-  <si>
-    <t>Primus RX105 (Commercial Distributor)</t>
-  </si>
-  <si>
-    <t>Primus RX 135 (Commercial Distributor)</t>
   </si>
   <si>
     <t>Samsung F500 
@@ -434,6 +413,102 @@
   </si>
   <si>
     <t>http://www.luluwebstore.com/products/lulu-home--living-major-appliances-washing-machines/lg/lg-washer-f10b8ndp25-6kg/pid-8250512.aspx</t>
+  </si>
+  <si>
+    <t>http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Preferred machine due to amount of information available</t>
+  </si>
+  <si>
+    <t>URL Link/Sources</t>
+  </si>
+  <si>
+    <t>£2500 incl VAT</t>
+  </si>
+  <si>
+    <t>£3100 incl VAT</t>
+  </si>
+  <si>
+    <t>Motor 0.15
+Heating 0.35
+Hot Water 0.75
+(cycle time 47 mins)</t>
+  </si>
+  <si>
+    <t>200-600</t>
+  </si>
+  <si>
+    <t>20 (at 300kPa)</t>
+  </si>
+  <si>
+    <t>Draining Capacity (L/min)</t>
+  </si>
+  <si>
+    <t>W70 E 75</t>
+  </si>
+  <si>
+    <t>Marketed as a very low energy/water consumption model of an Electrolux commercial washer</t>
+  </si>
+  <si>
+    <t>50L/cycle (cold wash, full load)</t>
+  </si>
+  <si>
+    <t>47L/cycle (cold wash, full load)</t>
+  </si>
+  <si>
+    <t>66x110x113</t>
+  </si>
+  <si>
+    <t>72x72x113</t>
+  </si>
+  <si>
+    <t>Motor 0.1
+Heating 0.35
+Hot Water 0.8
+(cycle time 44 mins)</t>
+  </si>
+  <si>
+    <t>W65 E 69</t>
+  </si>
+  <si>
+    <t>Electrolux W575 N (Commercial Distributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Electrolux W575 H (Commercial Distributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus FX 80 (Commercial Distributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus FX105 (Commercial DIstributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus FX 135 (Commercial Distribiutor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus RX 80 (Commercial DIstributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus RX105 (Commercial Distributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t>Primus RX 135 (Commercial Distributor, available in Rwanda)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+--&gt; Also see notes on meeting with OPL sales rep </t>
+  </si>
+  <si>
+    <t>Lower spin model, with residual moisture of 69%
+Spec contains many electrical-related details</t>
+  </si>
+  <si>
+    <t>High spin model- with residual moisture of 48%
+Spec contains many electrical related details</t>
   </si>
 </sst>
 </file>
@@ -514,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -532,6 +607,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,7 +644,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -582,6 +664,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="11772900"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -863,505 +993,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" customWidth="1"/>
-    <col min="8" max="12" width="22.42578125" customWidth="1"/>
-    <col min="20" max="20" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1"/>
+    <col min="9" max="14" width="22.42578125" customWidth="1"/>
+    <col min="22" max="22" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="9">
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9">
         <v>59</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="P4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="9">
+        <v>49</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9">
+      <c r="B5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42591</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>76</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="1">
+        <v>185</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1165</v>
+      </c>
+      <c r="R6" s="1">
+        <v>400</v>
+      </c>
+      <c r="S6" s="1">
+        <v>77</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42686</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="3">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3">
+        <v>76</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>210</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1075</v>
+      </c>
+      <c r="R7" s="1">
+        <v>400</v>
+      </c>
+      <c r="S7" s="1">
+        <v>106</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="3">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3">
+        <v>76</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>255</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1075</v>
+      </c>
+      <c r="R8" s="1">
+        <v>400</v>
+      </c>
+      <c r="S8" s="1">
+        <v>136</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="D9" s="2">
         <v>42591</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="K9" s="3">
         <v>20</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L9" s="3">
         <v>76</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="1">
-        <v>185</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1165</v>
-      </c>
-      <c r="P6" s="1">
-        <v>400</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>77</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="U9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="D10" s="2">
         <v>42686</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="K10" s="3">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L10" s="3">
         <v>76</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>210</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M10" s="3"/>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="1">
-        <v>1075</v>
-      </c>
-      <c r="P7" s="1">
-        <v>400</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>106</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K11" s="3">
         <v>20</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L11" s="3">
         <v>76</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
-        <v>255</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1075</v>
-      </c>
-      <c r="P8" s="1">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>136</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="M11" s="3"/>
+      <c r="V11" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2">
-        <v>42591</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3">
-        <v>76</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="S9" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="N12" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="O12" s="1">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42686</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="3">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="Q12" s="1">
+        <v>1400</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="3">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="V12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="D13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="G13" s="1">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="1">
-        <v>65</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O12" s="1">
-        <v>1400</v>
-      </c>
-      <c r="R12" s="1" t="s">
+      <c r="O13" s="1">
+        <v>98</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="1">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="V14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="1">
-        <v>98</v>
-      </c>
-      <c r="T13" s="4" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
         <v>11</v>
       </c>
-      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1377,113 +1534,121 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>470</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="V17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="9">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="T16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="G18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="1">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>470</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="I18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="9">
-        <v>7</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="9">
-        <v>61</v>
-      </c>
+      <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="9">
+        <v>61</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="9">
         <v>1200</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="9">
+        <v>91</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="9">
         <v>9</v>
       </c>
-      <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1499,57 +1664,169 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>170</v>
+      </c>
+      <c r="O24">
+        <v>116</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>587</v>
+      </c>
+      <c r="R24">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="T24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>170</v>
+      </c>
+      <c r="O25">
+        <v>158</v>
+      </c>
+      <c r="P25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25">
+        <v>1245</v>
+      </c>
+      <c r="R25">
+        <v>450</v>
+      </c>
+      <c r="T25" t="s">
+        <v>111</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="V25" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T6" r:id="rId1"/>
-    <hyperlink ref="T9" r:id="rId2"/>
-    <hyperlink ref="T12" r:id="rId3"/>
-    <hyperlink ref="T13" r:id="rId4"/>
-    <hyperlink ref="T18" r:id="rId5" display="http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf"/>
+    <hyperlink ref="V6" r:id="rId1"/>
+    <hyperlink ref="V9" r:id="rId2"/>
+    <hyperlink ref="V12" r:id="rId3"/>
+    <hyperlink ref="V13" r:id="rId4"/>
+    <hyperlink ref="V18" r:id="rId5" display="http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf"/>
+    <hyperlink ref="V24" r:id="rId6" display="http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf_x000a_--&gt; Also see notes on meeting with OPL sales rep "/>
+    <hyperlink ref="V25" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
   <si>
     <t>WM Model (Source of Availability)\Attribute (Units)</t>
   </si>
@@ -109,10 +109,6 @@
     <t>LG F10B8NDP25 (Longin)</t>
   </si>
   <si>
-    <t>£284
-AED 1350 (UAE Retail Price)</t>
-  </si>
-  <si>
     <t>1700 Max (Likely with heating)</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
   </si>
   <si>
     <t>66x44x85</t>
-  </si>
-  <si>
-    <t>LG F1496ADP248500 (Longin)</t>
   </si>
   <si>
     <r>
@@ -408,13 +401,6 @@
     <t>http://www.yubeyi.com/samsung-wf1702w5w-7kg-front-load-washing-machine-white-542.html</t>
   </si>
   <si>
-    <t>http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf
-http://www.yubeyi.com/samsung-wf1702w5w-7kg-front-load-washing-machine-white-542.html</t>
-  </si>
-  <si>
-    <t>http://www.luluwebstore.com/products/lulu-home--living-major-appliances-washing-machines/lg/lg-washer-f10b8ndp25-6kg/pid-8250512.aspx</t>
-  </si>
-  <si>
     <t>http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf</t>
   </si>
   <si>
@@ -509,6 +495,119 @@
   <si>
     <t>High spin model- with residual moisture of 48%
 Spec contains many electrical related details</t>
+  </si>
+  <si>
+    <t>http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf
+http://www.yubeyi.com/samsung-wf1702w5w-7kg-front-load-washing-machine-white-542.html
+(User Manual) http://www.manualslib.com/manual/267770/Samsung-Wf8692nhw-Xsg.html?page=10#manual</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>2100 Wash (Max)</t>
+  </si>
+  <si>
+    <t>220-240V 50Hz</t>
+  </si>
+  <si>
+    <t>44% Residual moisture retention</t>
+  </si>
+  <si>
+    <t>1.36kWh/cycle (washing + spinning only)</t>
+  </si>
+  <si>
+    <t>Information available on LG East Africa
+http://www.lg.com/ae/support/support-product/lg-F10B8NDP25
+http://www.luluwebstore.com/products/lulu-home--living-major-appliances-washing-machines/lg/lg-washer-f10b8ndp25-6kg/pid-8250512.aspx</t>
+  </si>
+  <si>
+    <t>LG F1496ADP24(8500) (Longin) (LG East Africa)</t>
+  </si>
+  <si>
+    <t>LG F10C3LDP2 (LG East Africa)</t>
+  </si>
+  <si>
+    <t>http://www.lg.com/eastafrica/washing-machines/all-washing-machines</t>
+  </si>
+  <si>
+    <t>http://www.lg.com/uk/support/manuals?search=F1496AD&amp;pageVisibleFlag=2
+http://www.lg.com/eastafrica/washing-machines/all-washing-machines</t>
+  </si>
+  <si>
+    <t>LG F1255FD27 (LG East Africa)</t>
+  </si>
+  <si>
+    <t>LG F1252RD27 (LG East Africa)</t>
+  </si>
+  <si>
+    <t>Front Load Washer Dryer A+++</t>
+  </si>
+  <si>
+    <t>Front Load  A+</t>
+  </si>
+  <si>
+    <t>Front Load A+</t>
+  </si>
+  <si>
+    <t>8Wash
+4Dry</t>
+  </si>
+  <si>
+    <t>60x55x85</t>
+  </si>
+  <si>
+    <t>60x44x85</t>
+  </si>
+  <si>
+    <t>220-240V 50/60hZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4kWh/cycle (Cotton 40C) 92min cycle </t>
+  </si>
+  <si>
+    <t>53% Residual moisture</t>
+  </si>
+  <si>
+    <t>2200 Max</t>
+  </si>
+  <si>
+    <t>65x77x94</t>
+  </si>
+  <si>
+    <t>£310 KSh 41500
+£438 ZMW 5700
+£140 NGN 60000 (May be due to recent huge devaluation)
+£206 with previous exchange rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1440 UGX 6500000
+£1337 GHC 6990
+£1220 UGX 5500000
+</t>
+  </si>
+  <si>
+    <t>£1440 AED7000
+£1260 AED 6070 
+£1160 KSH 155000</t>
+  </si>
+  <si>
+    <t>£568 INR 50000
+£550 AED 2649</t>
+  </si>
+  <si>
+    <t>Front Load  A++ (Not Dyer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£284 AED 1350 (UAE Retail Price)
+£466 LKR 89899
+£237 AED 1150
+£274 GEL 849
+£437 AMD 275000
+</t>
+  </si>
+  <si>
+    <t>A+++ (Not Dryer) (But little information available)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -606,14 +705,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,7 +748,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -689,7 +791,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -703,6 +805,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="11772900"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10515600" cy="14687550"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -993,20 +1143,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="41.5703125" customWidth="1"/>
     <col min="9" max="14" width="22.42578125" customWidth="1"/>
@@ -1018,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1051,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1078,42 +1228,48 @@
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D4" s="9">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1124,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
@@ -1133,219 +1289,180 @@
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V4" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
+        <v>65</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5">
+        <v>1400</v>
+      </c>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2">
-        <v>42591</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>134</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1700</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="3">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3">
-        <v>76</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
       <c r="O6" s="1">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1165</v>
-      </c>
-      <c r="R6" s="1">
-        <v>400</v>
-      </c>
-      <c r="S6" s="1">
-        <v>77</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="U6" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2">
-        <v>42686</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="3">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3">
-        <v>76</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>210</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1075</v>
-      </c>
-      <c r="R7" s="1">
-        <v>400</v>
-      </c>
-      <c r="S7" s="1">
-        <v>106</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="V7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3">
-        <v>76</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
       <c r="O8" s="1">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1075</v>
-      </c>
-      <c r="R8" s="1">
-        <v>400</v>
-      </c>
-      <c r="S8" s="1">
-        <v>136</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="S8" s="1"/>
       <c r="V8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>42591</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9" s="3">
         <v>20</v>
@@ -1355,29 +1472,53 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
+      <c r="O9" s="1">
+        <v>185</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1165</v>
+      </c>
+      <c r="R9" s="1">
+        <v>400</v>
+      </c>
+      <c r="S9" s="1">
+        <v>77</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="U9" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2">
         <v>42686</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3">
         <v>20</v>
@@ -1386,26 +1527,54 @@
         <v>76</v>
       </c>
       <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>210</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1075</v>
+      </c>
+      <c r="R10" s="1">
+        <v>400</v>
+      </c>
+      <c r="S10" s="1">
+        <v>106</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="V10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11" s="3">
         <v>20</v>
@@ -1414,416 +1583,539 @@
         <v>76</v>
       </c>
       <c r="M11" s="3"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>255</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1075</v>
+      </c>
+      <c r="R11" s="1">
+        <v>400</v>
+      </c>
+      <c r="S11" s="1">
+        <v>136</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42591</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3">
+        <v>76</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="U12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42686</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3">
+        <v>76</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="V13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3">
+        <v>76</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="V14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="G15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="N15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="O15" s="1">
+        <v>65</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="Q15" s="1">
+        <v>1400</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="1">
+      <c r="V15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="D16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1400</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="D13" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="1">
-        <v>62</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="O16" s="1">
+        <v>98</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="1" t="s">
+    </row>
+    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="1">
-        <v>98</v>
-      </c>
-      <c r="V13" s="4" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="N17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="V17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="V14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="D18" s="9">
         <v>11</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>470</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="9">
-        <v>7</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="9">
-        <v>61</v>
-      </c>
+      <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="9">
-        <v>1200</v>
-      </c>
+      <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="10"/>
+      <c r="V18" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>470</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="9">
+        <v>7</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="9">
+        <v>61</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="9">
+        <v>1200</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="D22" s="9">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="9" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="9">
-        <v>9</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" ht="102" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27">
+        <v>75</v>
+      </c>
+      <c r="M27">
+        <v>170</v>
+      </c>
+      <c r="O27">
+        <v>116</v>
+      </c>
+      <c r="P27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27">
+        <v>587</v>
+      </c>
+      <c r="R27">
+        <v>100</v>
+      </c>
+      <c r="T27" t="s">
+        <v>114</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28">
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <v>170</v>
+      </c>
+      <c r="O28">
+        <v>158</v>
+      </c>
+      <c r="P28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28">
+        <v>1245</v>
+      </c>
+      <c r="R28">
+        <v>450</v>
+      </c>
+      <c r="T28" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24">
-        <v>75</v>
-      </c>
-      <c r="M24">
-        <v>170</v>
-      </c>
-      <c r="O24">
-        <v>116</v>
-      </c>
-      <c r="P24" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q24">
-        <v>587</v>
-      </c>
-      <c r="R24">
-        <v>100</v>
-      </c>
-      <c r="T24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="V24" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25">
-        <v>75</v>
-      </c>
-      <c r="M25">
-        <v>170</v>
-      </c>
-      <c r="O25">
-        <v>158</v>
-      </c>
-      <c r="P25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25">
-        <v>1245</v>
-      </c>
-      <c r="R25">
-        <v>450</v>
-      </c>
-      <c r="T25" t="s">
-        <v>111</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1"/>
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V6" r:id="rId1"/>
-    <hyperlink ref="V9" r:id="rId2"/>
-    <hyperlink ref="V12" r:id="rId3"/>
-    <hyperlink ref="V13" r:id="rId4"/>
-    <hyperlink ref="V18" r:id="rId5" display="http://downloadcenter.samsung.com/content/UM/201401/20140108160843828/WF8692NH-02583G-08_XSG.pdf"/>
-    <hyperlink ref="V24" r:id="rId6" display="http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf_x000a_--&gt; Also see notes on meeting with OPL sales rep "/>
-    <hyperlink ref="V25" r:id="rId7"/>
+    <hyperlink ref="V9" r:id="rId1"/>
+    <hyperlink ref="V12" r:id="rId2"/>
+    <hyperlink ref="V15" r:id="rId3"/>
+    <hyperlink ref="V16" r:id="rId4"/>
+    <hyperlink ref="V27" r:id="rId5" display="http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf_x000a_--&gt; Also see notes on meeting with OPL sales rep "/>
+    <hyperlink ref="V28" r:id="rId6"/>
+    <hyperlink ref="V20" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId8"/>

--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -106,9 +106,6 @@
     <t>TOSHIBA VH 12105 (Longin)</t>
   </si>
   <si>
-    <t>LG F10B8NDP25 (Longin)</t>
-  </si>
-  <si>
     <t>1700 Max (Likely with heating)</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>48L/cycle</t>
   </si>
   <si>
-    <t>SAMSUNG WF8692NHW (Yubeyi)</t>
-  </si>
-  <si>
     <t>RWF 433000</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
     <t>LG F1496ADP24(8500) (Longin) (LG East Africa)</t>
   </si>
   <si>
-    <t>LG F10C3LDP2 (LG East Africa)</t>
-  </si>
-  <si>
     <t>http://www.lg.com/eastafrica/washing-machines/all-washing-machines</t>
   </si>
   <si>
@@ -608,6 +599,15 @@
   </si>
   <si>
     <t>A+++ (Not Dryer) (But little information available)</t>
+  </si>
+  <si>
+    <t>LG F10B8NDP25 (Longin) (1st Choice)</t>
+  </si>
+  <si>
+    <t>SAMSUNG WF8692NHW (Yubeyi) (T-2nd Choice)</t>
+  </si>
+  <si>
+    <t>LG F10C3LDP2 (LG East Africa) (T-2nd Choice)</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -648,8 +648,15 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,14 +671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -684,11 +696,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -700,9 +713,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -715,11 +727,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -853,6 +868,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10515600" cy="14687550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11458575" cy="18430875"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1145,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1201,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1228,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -1236,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -1244,106 +1307,106 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="9">
-        <v>6</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8">
+        <v>59</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="9">
-        <v>59</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="9">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="8">
         <v>49</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="16" t="s">
-        <v>132</v>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1">
         <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>1400</v>
       </c>
       <c r="S5" s="1"/>
       <c r="U5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1352,40 +1415,40 @@
         <v>1700</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1">
         <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S6" s="1"/>
       <c r="U6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>151</v>
+      <c r="C7" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -1395,74 +1458,74 @@
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
       <c r="V7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>152</v>
+      <c r="C8" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8">
         <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="1">
         <v>86</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S8" s="1"/>
       <c r="V8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>42591</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K9" s="3">
         <v>20</v>
@@ -1476,7 +1539,7 @@
         <v>185</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1">
         <v>1165</v>
@@ -1488,37 +1551,37 @@
         <v>77</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>42686</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K10" s="3">
         <v>20</v>
@@ -1532,7 +1595,7 @@
         <v>210</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1">
         <v>1075</v>
@@ -1544,37 +1607,37 @@
         <v>106</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K11" s="3">
         <v>20</v>
@@ -1588,7 +1651,7 @@
         <v>255</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1">
         <v>1075</v>
@@ -1600,40 +1663,40 @@
         <v>136</v>
       </c>
       <c r="T11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="V11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
         <v>42591</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K12" s="3">
         <v>20</v>
@@ -1644,28 +1707,28 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="U12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>42686</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K13" s="3">
         <v>20</v>
@@ -1675,25 +1738,25 @@
       </c>
       <c r="M13" s="3"/>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K14" s="3">
         <v>20</v>
@@ -1703,162 +1766,162 @@
       </c>
       <c r="M14" s="3"/>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" s="1">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="N15" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="O15" s="1">
         <v>65</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="1">
         <v>1400</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="6"/>
       <c r="D16" s="1">
         <v>7.5</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="1">
         <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="O16" s="1">
         <v>98</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="N17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="V17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="V17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>11</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10" t="s">
-        <v>96</v>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="V19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -1867,149 +1930,149 @@
         <v>470</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="V20" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="8">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="9">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="G21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" s="8">
+        <v>61</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="8">
+        <v>1200</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="V21" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="9">
-        <v>61</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="9">
-        <v>1200</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="9" t="s">
+      <c r="B22" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>9</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10" t="s">
-        <v>96</v>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>113</v>
+      <c r="F27" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L27">
         <v>75</v>
@@ -2021,7 +2084,7 @@
         <v>116</v>
       </c>
       <c r="P27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q27">
         <v>587</v>
@@ -2030,39 +2093,39 @@
         <v>100</v>
       </c>
       <c r="T27" t="s">
-        <v>114</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28">
         <v>8</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
         <v>103</v>
-      </c>
-      <c r="G28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" t="s">
-        <v>105</v>
       </c>
       <c r="L28">
         <v>75</v>
@@ -2074,7 +2137,7 @@
         <v>158</v>
       </c>
       <c r="P28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q28">
         <v>1245</v>
@@ -2083,13 +2146,13 @@
         <v>450</v>
       </c>
       <c r="T28" t="s">
-        <v>107</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -2103,7 +2166,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1"/>
     </row>

--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -519,13 +519,6 @@
     <t>LG F1496ADP24(8500) (Longin) (LG East Africa)</t>
   </si>
   <si>
-    <t>http://www.lg.com/eastafrica/washing-machines/all-washing-machines</t>
-  </si>
-  <si>
-    <t>http://www.lg.com/uk/support/manuals?search=F1496AD&amp;pageVisibleFlag=2
-http://www.lg.com/eastafrica/washing-machines/all-washing-machines</t>
-  </si>
-  <si>
     <t>LG F1255FD27 (LG East Africa)</t>
   </si>
   <si>
@@ -608,6 +601,15 @@
   </si>
   <si>
     <t>LG F10C3LDP2 (LG East Africa) (T-2nd Choice)</t>
+  </si>
+  <si>
+    <t>http://www.lg.com/uk/support/manuals?search=F1496AD&amp;pageVisibleFlag=2
+http://www.lg.com/eastafrica/washing-machines/all-washing-machines
+Manual containing some technical specification available in the Product Support section</t>
+  </si>
+  <si>
+    <t>http://www.lg.com/eastafrica/washing-machines/all-washing-machines
+Manual containing some technical specification available in the Product Support section</t>
   </si>
 </sst>
 </file>
@@ -940,6 +942,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11458575" cy="18459450"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1208,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1312,13 +1362,13 @@
     </row>
     <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -1356,18 +1406,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
         <v>126</v>
@@ -1385,7 +1435,7 @@
         <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>1400</v>
@@ -1395,18 +1445,18 @@
         <v>128</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1415,13 +1465,13 @@
         <v>1700</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1430,25 +1480,25 @@
         <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S6" s="1"/>
       <c r="U6" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" t="s">
-        <v>132</v>
+        <v>142</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -1457,25 +1507,25 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="V7" t="s">
-        <v>132</v>
+      <c r="V7" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8">
@@ -1491,11 +1541,11 @@
         <v>86</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="V8" t="s">
-        <v>132</v>
+      <c r="V8" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,7 +1991,7 @@
     </row>
     <row r="21" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>97</v>
@@ -2179,9 +2229,12 @@
     <hyperlink ref="V27" r:id="rId5" display="http://tools.professional.electrolux.com/Mirror/Doc/ELS/PDS/PS_438919495EN_W575H_EN.pdf_x000a_--&gt; Also see notes on meeting with OPL sales rep "/>
     <hyperlink ref="V28" r:id="rId6"/>
     <hyperlink ref="V20" r:id="rId7"/>
+    <hyperlink ref="V6" r:id="rId8"/>
+    <hyperlink ref="V7" r:id="rId9"/>
+    <hyperlink ref="V8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Washing-Machine/Washing Machine Shortlist.xlsx
+++ b/Washing-Machine/Washing Machine Shortlist.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="159">
   <si>
     <t>WM Model (Source of Availability)\Attribute (Units)</t>
   </si>
@@ -508,9 +508,6 @@
     <t>44% Residual moisture retention</t>
   </si>
   <si>
-    <t>1.36kWh/cycle (washing + spinning only)</t>
-  </si>
-  <si>
     <t>Information available on LG East Africa
 http://www.lg.com/ae/support/support-product/lg-F10B8NDP25
 http://www.luluwebstore.com/products/lulu-home--living-major-appliances-washing-machines/lg/lg-washer-f10b8ndp25-6kg/pid-8250512.aspx</t>
@@ -545,9 +542,6 @@
   </si>
   <si>
     <t>220-240V 50/60hZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4kWh/cycle (Cotton 40C) 92min cycle </t>
   </si>
   <si>
     <t>53% Residual moisture</t>
@@ -610,6 +604,20 @@
   <si>
     <t>http://www.lg.com/eastafrica/washing-machines/all-washing-machines
 Manual containing some technical specification available in the Product Support section</t>
+  </si>
+  <si>
+    <t>&lt;0.70kWh/cycle (Derived from energy rating)</t>
+  </si>
+  <si>
+    <t>1.36kWh/cycle (washing + spinning only)
+&lt;0.89kWh/cycle (Derived from energy rating)</t>
+  </si>
+  <si>
+    <t>0.4kWh/cycle (Cotton 40C) 92min cycle 
+0.64kWh/cycle(Derived from energy rating)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -990,6 +998,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11458575" cy="18621375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1258,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,13 +1418,13 @@
     </row>
     <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -1376,7 +1432,9 @@
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
         <v>22</v>
@@ -1403,27 +1461,27 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>129</v>
+      <c r="F5" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="H5" t="s">
         <v>127</v>
@@ -1435,7 +1493,7 @@
         <v>65</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>1400</v>
@@ -1445,18 +1503,18 @@
         <v>128</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1464,14 +1522,14 @@
       <c r="E6">
         <v>1700</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>141</v>
+      <c r="F6" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="G6">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1480,52 +1538,54 @@
         <v>60</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S6" s="1"/>
       <c r="U6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="S7" s="1"/>
       <c r="V7" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8">
@@ -1541,11 +1601,11 @@
         <v>86</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S8" s="1"/>
       <c r="V8" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,7 +2051,7 @@
     </row>
     <row r="21" spans="1:22" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>97</v>
